--- a/info/RASM arduino Mega pin table.xlsx
+++ b/info/RASM arduino Mega pin table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="32">
   <si>
     <t>pin #s</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Digital PWM</t>
   </si>
   <si>
-    <t>Motor Shield/ Servo M#</t>
-  </si>
-  <si>
     <t>MOTOR SHIELD 1</t>
   </si>
   <si>
@@ -105,6 +102,24 @@
   </si>
   <si>
     <t>con Type</t>
+  </si>
+  <si>
+    <t>Motor Shield/ Encoder M#</t>
+  </si>
+  <si>
+    <t>Encoder Motor 1</t>
+  </si>
+  <si>
+    <t>Encoder Motor 2</t>
+  </si>
+  <si>
+    <t>Encoder Motor 5</t>
+  </si>
+  <si>
+    <t>Encoder Motor 3</t>
+  </si>
+  <si>
+    <t>Encoder Motor 4</t>
   </si>
 </sst>
 </file>
@@ -486,7 +501,7 @@
   <dimension ref="B2:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,13 +519,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -518,7 +533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -534,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -548,10 +563,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -562,10 +577,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -576,10 +591,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -590,10 +605,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -604,10 +619,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -618,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -632,10 +647,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -646,10 +661,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -668,10 +683,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -721,6 +736,9 @@
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
@@ -729,6 +747,9 @@
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
@@ -737,6 +758,9 @@
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
@@ -745,6 +769,9 @@
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
@@ -754,10 +781,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -776,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -790,10 +817,10 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -804,13 +831,13 @@
         <v>2</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>27</v>
       </c>
@@ -818,39 +845,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>32</v>
       </c>
@@ -858,7 +897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>33</v>
       </c>
@@ -866,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>34</v>
       </c>
@@ -874,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>35</v>
       </c>
@@ -882,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>36</v>
       </c>
@@ -890,7 +929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>37</v>
       </c>
@@ -898,7 +937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>38</v>
       </c>
@@ -906,7 +945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>39</v>
       </c>
@@ -914,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>40</v>
       </c>
@@ -922,7 +961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>41</v>
       </c>
@@ -930,7 +969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>42</v>
       </c>
@@ -938,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>43</v>
       </c>
@@ -946,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>44</v>
       </c>
@@ -954,7 +993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>45</v>
       </c>
@@ -970,10 +1009,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -984,10 +1023,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -998,10 +1037,10 @@
         <v>2</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1012,10 +1051,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -1033,6 +1072,9 @@
       <c r="C54" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D54" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55">
@@ -1040,6 +1082,9 @@
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">

--- a/info/RASM arduino Mega pin table.xlsx
+++ b/info/RASM arduino Mega pin table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7935" windowHeight="6390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7935" windowHeight="6390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PIN INFORMATION" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="25">
   <si>
     <t>pin #s</t>
   </si>
@@ -77,6 +77,30 @@
   </si>
   <si>
     <t>M2SF</t>
+  </si>
+  <si>
+    <t>MOTOR SHIELD 2</t>
+  </si>
+  <si>
+    <t>MOTOR SHIELD 3</t>
+  </si>
+  <si>
+    <t>ENCODER 1</t>
+  </si>
+  <si>
+    <t>ENCODER 2</t>
+  </si>
+  <si>
+    <t>ENCODER 3</t>
+  </si>
+  <si>
+    <t>ENCODER 4</t>
+  </si>
+  <si>
+    <t>ENCODER 5</t>
+  </si>
+  <si>
+    <t>ENCODER 6</t>
   </si>
 </sst>
 </file>
@@ -99,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +142,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -128,12 +164,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,9 +199,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
     <cellStyle name="40% - Accent5" xfId="1" builtinId="47"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -445,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -459,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,12 +1096,688 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>30</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>31</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <v>33</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <v>34</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12">
+        <v>36</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12">
+        <v>37</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12">
+        <v>38</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12">
+        <v>39</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12">
+        <v>40</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12">
+        <v>41</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="13">
+        <v>42</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="13">
+        <v>43</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="13">
+        <v>44</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="13">
+        <v>45</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="13">
+        <v>46</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="13">
+        <v>47</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>48</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>49</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>51</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>52</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>53</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/info/RASM arduino Mega pin table.xlsx
+++ b/info/RASM arduino Mega pin table.xlsx
@@ -100,7 +100,7 @@
     <t>ENCODER 5</t>
   </si>
   <si>
-    <t>ENCODER 6</t>
+    <t>linear actuator uses potentiometer</t>
   </si>
 </sst>
 </file>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1112,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>6</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>8</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>9</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1268,15 +1268,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="L14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1367,9 +1370,7 @@
       <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
